--- a/data/trans_bre/P12A1_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,66</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,41</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-14,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>-37,22%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-45,97%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 62,63</t>
+          <t>-17,24; 10,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-22,32; 6,85</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 20,69</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-21,32; 5,8</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 63,73</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-31,27; 276,82</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-91,08; 216,84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 167,07</t>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-29,68</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,53</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,41%</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-37,53%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>62,82%</t>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-45,65%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50,98%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,42; 51,11</t>
+          <t>-11,39; 5,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-65,4; -4,59</t>
+          <t>-15,72; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,1; 66,57</t>
+          <t>-12,4; 4,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-6,38; 11,18</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-60,36; 979,2</t>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,61</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>39,5</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,7</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>176,44%</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>247,67%</t>
+          <t>103,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>224,69%</t>
+          <t>80,97%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>62,73%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 63,24</t>
+          <t>-3,32; 9,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 80,25</t>
+          <t>-4,3; 7,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 82,3</t>
+          <t>-5,61; 8,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-49,93; —</t>
+          <t>-7,31; 6,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,63; —</t>
+          <t>-85,05; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,44; —</t>
+          <t>-87,89; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-85,07; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-74,74; inf</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>-19,74%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-10,32%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12,82%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 27,7</t>
+          <t>-9,97; 7,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 29,66</t>
+          <t>-11,89; 6,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 28,01</t>
+          <t>-10,48; 8,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 52,64</t>
+          <t>-10,13; 12,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 61,41</t>
+          <t>-66,94; 149,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,97; 57,35</t>
+          <t>-68,92; 122,72</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-61,48; 128,24</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-49,02; 147,75</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-27,67</t>
+          <t>-11,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-22,41</t>
+          <t>-8,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-10,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-49,65%</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-42,98%</t>
+          <t>-87,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-18,43%</t>
+          <t>-69,76%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-74,04%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-56,3; 3,85</t>
+          <t>-20,57; -3,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-45,5; 6,59</t>
+          <t>-18,69; 0,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 25,23</t>
+          <t>-20,95; -1,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-83,61; 12,44</t>
+          <t>-8,68; 10,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-75,44; 17,74</t>
+          <t>-100,0; 15,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-67,51; 89,72</t>
+          <t>-100,0; 73,31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 40,84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-82,23; 487,71</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-39,11%</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,55%</t>
+          <t>71,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>112,59%</t>
+          <t>-33,85%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>70,54%</t>
         </is>
       </c>
     </row>
@@ -1042,30 +1168,40 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,92; 15,52</t>
+          <t>-5,69; 8,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 11,1</t>
+          <t>-13,58; 5,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 32,65</t>
+          <t>0,0; 11,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-4,56; 10,8</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,79%</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>-20,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>-35,5%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 14,24</t>
+          <t>-5,7; 2,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 10,54</t>
+          <t>-7,62; 0,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 28,91</t>
+          <t>-3,66; 3,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 38,33</t>
+          <t>-3,83; 4,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 24,82</t>
+          <t>-55,23; 38,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 99,87</t>
+          <t>-64,37; 5,97</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-42,18; 78,17</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-37,3; 83,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P12A1_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_2_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,33</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,13</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-14,44%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-37,22%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-45,97%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.041512672925629</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.54148477712448</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.11774343856859</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-4.542994800132595</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.113342404794262</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2174871807174659</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.4335061935342736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,24; 10,16</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-22,32; 6,85</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 20,69</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-21,32; 5,8</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-91,08; 216,84</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.3325056377307</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.56308793602314</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.363535899416286</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-19.64274244484247</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.9039146443548802</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.51339557766916</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.675040466282979</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21.68282404395288</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.902354077291911</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>2.700486878762769</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,49</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-37,53%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-45,65%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>50,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,39; 5,8</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-15,72; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,4; 4,66</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,38; 11,18</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-5.90266761182374</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.518445044224415</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.254212519524954</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.9549578893395194</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.626941560018731</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.4840820619872538</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2335532252032091</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>103,96%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>80,97%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>62,73%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>19,1%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-25.70161491483609</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-22.63085127256765</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-15.19259677845975</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-8.173528992942527</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 9,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 7,44</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,61; 8,37</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; 6,96</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-85,05; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-87,89; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-85,07; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-74,74; inf</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.509834888985925</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.994612336281869</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.496547316123239</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +803,193 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-9,02%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-19,74%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-10,32%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>12,82%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.152031112525965</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.438157246231531</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.228681764112203</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.8632187642011853</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.086334944620702</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.8952716512823874</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.5457588645525023</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1694871011854322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,97; 7,54</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-11,89; 6,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,48; 8,65</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-10,13; 12,97</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-66,94; 149,7</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-68,92; 122,72</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-61,48; 128,24</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-49,02; 147,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.042881481399079</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.759044392151896</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.223440971373555</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.285682664375908</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.814695542026348</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8696806794974651</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8730187766298821</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7511418139119791</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.680819080897221</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.25119525307607</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.194480893689054</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.965920444921404</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>6.751300920575414</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-11,02</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,99</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-10,83</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-87,81%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-69,76%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-74,04%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-20,57; -3,95</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-18,69; 0,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-20,95; -1,35</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,68; 10,8</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 15,57</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 73,31</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 40,84</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-82,23; 487,71</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.3799529861810758</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.127139524066887</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.3946612814119246</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.897359352205419</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.03949395941184029</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1947283628530424</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.03366577484187797</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1261330394678457</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,87</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>71,5%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-33,85%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>70,54%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.084486266206106</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-11.40390924377927</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.020230238076534</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-10.27007030897541</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6465577453993896</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6960344997555226</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5803586542618241</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5025395824974886</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; 8,79</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-13,58; 5,15</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 11,92</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 10,8</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.95661546774489</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.503338044122203</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.710480288224446</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.77252149857566</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.728631546356058</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.208971451103867</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.511969019222275</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.497153576645253</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +997,283 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-3,03</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-20,0%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-35,5%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>5,47%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-10.89879197561498</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-9.042152161850844</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-10.02939401278737</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.4664951680840801</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.8600131118943284</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.6782250348675978</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.7051571277410956</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.0634925072481097</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 2,0</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 0,29</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 3,65</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 4,36</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-55,23; 38,98</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-64,37; 5,97</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-42,18; 78,17</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-37,3; 83,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-20.39072517515923</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-19.2626461905436</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-19.75416726553872</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-8.716295254117465</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.810314873479429</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-3.387662097211418</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.493972561804578</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.4536418500185508</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>11.01007129241172</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.2357814499302208</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.9783785334058477</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.4746782208820933</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>4.839144664865735</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-1.48346971210031</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-2.903561782294529</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>3.193930645412776</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1.427408694853387</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.2561545968884017</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.462401940882172</v>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.6272771742424736</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-19.57891843792107</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-17.15691664856069</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-4.685409138311654</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>6.516787771580848</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>3.681897408927507</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>11.23834555477104</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>9.092900195364264</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.369295935663966</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-3.198289169176532</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2170138103297969</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1870588465164497</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.2843474621530878</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.3694579477416942</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.03271926279471625</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.02470367701482579</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.471016447181126</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-7.826551753149646</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.869722819789867</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-3.973717620817184</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.6256292537474331</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.6635150756627576</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.4327601465044367</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.3878194981133162</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.328132354379347</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.136438309376793</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.749463332268713</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>4.09001380417887</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.2503715953411672</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.03488361552276088</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.8226995716040614</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.7710142888370475</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1281,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
